--- a/API Function Specification/API기능명세서.xlsx
+++ b/API Function Specification/API기능명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,67 +474,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/my-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my-club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/club/:id/board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽내정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>clubMyInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/my-page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/my-page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/sign-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/sign-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/my-club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/club/:id/board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/club/:id/my-info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
+    <t>clubMyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/club/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,9 +914,10 @@
     <col min="3" max="3" width="38.375" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,15 +931,15 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -911,15 +948,15 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -928,15 +965,18 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -945,15 +985,15 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -962,15 +1002,18 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
@@ -979,10 +1022,10 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -996,10 +1039,13 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1013,10 +1059,10 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1030,15 +1076,15 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1047,10 +1093,13 @@
         <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1064,10 +1113,10 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1081,10 +1130,13 @@
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1098,27 +1150,47 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1132,10 +1204,10 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1149,10 +1221,10 @@
         <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1166,10 +1238,13 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1183,10 +1258,10 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1200,10 +1275,10 @@
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1217,10 +1292,16 @@
         <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1234,10 +1315,10 @@
         <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1251,10 +1332,10 @@
         <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1268,15 +1349,15 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -1285,10 +1366,10 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1302,10 +1383,13 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1319,10 +1403,10 @@
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1336,10 +1420,10 @@
         <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1353,15 +1437,15 @@
         <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
         <v>105</v>
@@ -1370,15 +1454,18 @@
         <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
@@ -1387,10 +1474,10 @@
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1404,10 +1491,13 @@
         <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1421,10 +1511,10 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -1438,10 +1528,10 @@
         <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1455,7 +1545,7 @@
         <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1472,7 +1562,7 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1489,7 +1579,7 @@
         <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1506,7 +1596,7 @@
         <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
